--- a/Simulation Results 011120.xlsx
+++ b/Simulation Results 011120.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BrianLam/UTSC Research/Plaut_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB0088D-3D3F-654C-AA75-DE6A0B5D9C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A78EFF-4523-C14F-9645-0A424A33FD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="2" xr2:uid="{731A8A60-4D85-694D-9B57-3EC626427640}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="1" xr2:uid="{731A8A60-4D85-694D-9B57-3EC626427640}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation 1" sheetId="1" r:id="rId1"/>
@@ -2133,7 +2133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91334DBB-3320-CA41-8063-97F176F4831A}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
@@ -2222,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A30168-F67C-BC4E-A581-6173ACDBEC56}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Simulation Results 011120.xlsx
+++ b/Simulation Results 011120.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BrianLam/UTSC Research/Plaut_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A78EFF-4523-C14F-9645-0A424A33FD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A812BE9-8BF3-FA47-8919-E62214286C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="1" xr2:uid="{731A8A60-4D85-694D-9B57-3EC626427640}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" xr2:uid="{731A8A60-4D85-694D-9B57-3EC626427640}"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Simulation 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Simulation 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Simulation 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Simulation 5" sheetId="5" r:id="rId5"/>
+    <sheet name="wd=0" sheetId="1" r:id="rId1"/>
+    <sheet name="wd=0.000001" sheetId="2" r:id="rId2"/>
+    <sheet name="wd=0.00001" sheetId="3" r:id="rId3"/>
+    <sheet name="wd=0.0001" sheetId="4" r:id="rId4"/>
+    <sheet name="wd=0.001" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2044,7 +2044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD921E4F-5EDE-5B4E-8C59-9131F66B71AC}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2133,7 +2133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91334DBB-3320-CA41-8063-97F176F4831A}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
